--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_221.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_221.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,187 +488,191 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_147</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3676470588235294</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min']]</t>
+          <t>[['D:maj/F#', 'G:maj', 'D:maj', 'A:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(94.68, 110.76)]</t>
+          <t>[['E', 'A', 'E', 'B']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(9.7, 15.02)]</t>
+          <t>[('0:01:00.040000', '0:01:10.960000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:19.435000', '0:00:34.866000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>isophonics_14</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_205</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.06995192307692308</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['C:7', 'F', 'C/3']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(40.08, 42.28)]</t>
+          <t>[['G:7/F', 'C:maj/E', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(18.24, 29.1)]</t>
+          <t>[('0:00:12.503707', '0:00:19.759943')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
+          <t>[('0:00:58.460000', '0:01:03.460000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:0pNeVovbiZHkulpGeOx1Gj</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_77</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_178</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3736263736263736</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(62.5, 72.76)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(19.78, 25.82)]</t>
+          <t>[('0:00:48.460000', '0:01:01.580000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:01.140000', '0:00:09.880000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_64</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1334681496461072</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>[['G:min', 'D:7', 'G:min', 'G:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(7.54, 122.26)]</t>
+          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(4.76, 118.78)]</t>
+          <t>[('0:00:04.160000', '0:00:08.800000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:09.740000', '0:00:27.080000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_88</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -671,534 +680,504 @@
           <t>schubert-winterreise_129</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_128</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2461538461538462</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(16.04, 21.0)]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(53.82, 62.52)]</t>
+          <t>[('0:01:41.060000', '0:01:42.380000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:01:15.560000', '0:01:35.680000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_162</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_185</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_168</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(23.26, 29.8)]</t>
+          <t>[['A#:min', 'A#:7', 'D#:maj/A#', 'D#:min/A#', 'A#:maj', 'A#:min', 'F:maj', 'A#:min', 'A#:7', 'D#:min/A#', 'F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min', 'C#:maj/G#', 'D#:min/F#', 'C#:maj/F', 'G#:7', 'C#:maj', 'A#:min', 'A#:7/G#', 'D#:maj/G', 'G#:(3,5,b7,b9)/F#', 'C#:maj/F', 'F:(3,5,b7,b9)/D#', 'F#:(3,5)', 'A#:min/F', 'F:7', 'F#:(3,5)', 'A#:min/F', 'F:7', 'A#:min', 'A#:7', 'D#:maj', 'D#:min', 'A#:maj', 'A#:min/A#', 'F:maj', 'A#:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(53.82, 62.52)]</t>
+          <t>[('0:00:00.820000', '0:01:47.920000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:00.780000', '0:01:38.820000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_147</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3939393939393939</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(39.04, 46.1)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(40.82, 43.62)]</t>
+          <t>[('0:00:53.820000', '0:01:02.520000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:19.780000', '0:00:25.820000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_167</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3819444444444445</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(40.82, 43.62)]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(39.84, 47.28)]</t>
+          <t>[('0:00:00.580000', '0:00:10.180000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:07.900000', '0:00:20.520000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_162</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
+          <t>[['A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(46.22, 48.94)]</t>
+          <t>[['D/5', 'A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(2.68, 6.46)]</t>
+          <t>[('0:02:08.160000', '0:02:09.880000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:27.963197', '0:00:36.229501')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:7', 'C:min', 'C:min']]</t>
-        </is>
+          <t>isophonics_234</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4666666666666667</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min', 'F:min']]</t>
+          <t>[['Eb/5', 'Ab/2', 'Eb']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(10.12, 27.18)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(3.0, 7.38)]</t>
+          <t>[('0:01:15.439000', '0:01:23.381000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:02:23.580000', '0:02:28.160000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_22</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_20</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.2666666666666667</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
+          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(40.46, 43.62)]</t>
+          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(1.68, 5.3)]</t>
+          <t>[('0:01:46.960000', '0:01:59.340000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:01:26.660000', '0:01:36.120000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_291</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_140</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2701149425287356</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['D', 'G', 'D', 'G', 'D', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_125</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_32</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G', 'C', 'G', 'C']]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(5.20815, 16.933718)]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(0.465952, 10.090897)]</t>
+          <t>[('0:00:48.440000', '0:00:53.480000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
-        </is>
-      </c>
+          <t>[('0:00:39.700000', '0:00:44.020000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_179</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_85</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(40.08, 42.28)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(1.92, 5.28)]</t>
+          <t>[('0:00:00.220000', '0:00:15.080000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:00.660000', '0:00:13.280000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(42.36, 50.36)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(74.8, 81.06)]</t>
+          <t>[('0:01:52.140000', '0:01:57.460000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:02:01.740000', '0:02:08.480000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_291</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2528735632183908</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_99</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_158</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D', 'G', 'D']]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(111.92, 115.98)]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(5.20815, 14.983242)]</t>
+          <t>[('0:01:06.740000', '0:01:30.220000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_65</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_213</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D#:min', 'A#:7', 'D#:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(9.1, 13.86)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(42.94, 51.08)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:01:06.100000', '0:01:30.100000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
